--- a/strategy_tables/power_threshold.xlsx
+++ b/strategy_tables/power_threshold.xlsx
@@ -570,26 +570,26 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="166" zoomScaleNormal="166" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+      <selection pane="topLeft" activeCell="T10" activeCellId="0" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="1.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="1.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="4.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="5.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="1.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="3.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="3.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="5.22"/>
@@ -713,7 +713,9 @@
       <c r="C4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -762,7 +764,9 @@
       <c r="H5" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -811,7 +815,9 @@
       <c r="M6" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="32"/>
+      <c r="N6" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
@@ -860,7 +866,9 @@
         <v>11</v>
       </c>
       <c r="D8" s="22"/>
-      <c r="E8" s="35"/>
+      <c r="E8" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="21"/>
@@ -913,7 +921,9 @@
       <c r="I9" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="35"/>
+      <c r="J9" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="21"/>
@@ -966,7 +976,9 @@
       <c r="N10" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="O10" s="38"/>
+      <c r="O10" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="P10" s="29"/>
       <c r="Q10" s="29"/>
       <c r="R10" s="33"/>
@@ -1017,7 +1029,9 @@
         <v>0</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="35"/>
+      <c r="F12" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="G12" s="20"/>
       <c r="H12" s="21"/>
       <c r="I12" s="22" t="n">
@@ -1068,7 +1082,9 @@
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="35"/>
+      <c r="K13" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="L13" s="20"/>
       <c r="M13" s="21"/>
       <c r="N13" s="22"/>
@@ -1121,7 +1137,9 @@
         <v>1</v>
       </c>
       <c r="O14" s="29"/>
-      <c r="P14" s="38"/>
+      <c r="P14" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="Q14" s="29"/>
       <c r="R14" s="33"/>
     </row>
@@ -1172,7 +1190,9 @@
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="35"/>
+      <c r="G16" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="23" t="n">
@@ -1225,7 +1245,9 @@
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="35"/>
+      <c r="L17" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="M17" s="21"/>
       <c r="N17" s="22" t="n">
         <v>1</v>
@@ -1276,7 +1298,9 @@
       <c r="N18" s="28"/>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
-      <c r="Q18" s="38"/>
+      <c r="Q18" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="R18" s="33"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1327,7 +1351,9 @@
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="45"/>
+      <c r="H20" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="I20" s="46" t="n">
         <v>0</v>
       </c>
@@ -1378,7 +1404,9 @@
         <v>1</v>
       </c>
       <c r="L21" s="20"/>
-      <c r="M21" s="45"/>
+      <c r="M21" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="N21" s="46" t="n">
         <v>1</v>
       </c>
@@ -1429,7 +1457,9 @@
       <c r="Q22" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="R22" s="49"/>
+      <c r="R22" s="49" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/strategy_tables/power_threshold.xlsx
+++ b/strategy_tables/power_threshold.xlsx
@@ -570,7 +570,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="166" zoomScaleNormal="166" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T10" activeCellId="0" sqref="T10"/>
+      <selection pane="topLeft" activeCell="U17" activeCellId="0" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
